--- a/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5131" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5135" uniqueCount="1482">
   <si>
     <t>Name</t>
   </si>
@@ -4463,6 +4463,9 @@
   </si>
   <si>
     <t>Beetle, Shaqat: 01 HD</t>
+  </si>
+  <si>
+    <t>1 to 24</t>
   </si>
 </sst>
 </file>
@@ -4607,7 +4610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4669,6 +4672,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4893,10 +4899,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B145" sqref="A145:B145"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -10538,7 +10544,9 @@
       <c r="J121" s="15">
         <v>5</v>
       </c>
-      <c r="K121" s="15"/>
+      <c r="K121" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="L121" s="15" t="s">
         <v>101</v>
       </c>
@@ -10595,7 +10603,9 @@
       <c r="L122" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="M122" s="15"/>
+      <c r="M122" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="N122" s="15"/>
       <c r="O122" s="15"/>
       <c r="P122" s="15"/>
@@ -12860,8 +12870,8 @@
       <c r="K171" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="L171" s="15">
-        <v>1</v>
+      <c r="L171" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="M171" s="15" t="s">
         <v>33</v>
@@ -13260,7 +13270,7 @@
       <c r="O180" s="15"/>
       <c r="P180" s="15"/>
     </row>
-    <row r="181" spans="1:27" ht="25.5">
+    <row r="181" spans="1:27">
       <c r="A181" s="15" t="s">
         <v>1109</v>
       </c>
@@ -13268,7 +13278,7 @@
         <v>91</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D181" s="15" t="s">
         <v>18</v>
@@ -13293,7 +13303,7 @@
         <v>89</v>
       </c>
       <c r="L181" s="15" t="s">
-        <v>1474</v>
+        <v>1481</v>
       </c>
       <c r="M181" s="15" t="s">
         <v>26</v>
@@ -13332,8 +13342,8 @@
       <c r="F182" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G182" s="19">
-        <v>4</v>
+      <c r="G182" s="19" t="s">
+        <v>948</v>
       </c>
       <c r="H182" s="15">
         <v>5</v>

--- a/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5135" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5136" uniqueCount="1482">
   <si>
     <t>Name</t>
   </si>
@@ -4899,10 +4899,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B317" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28:B28"/>
+      <selection pane="bottomRight" activeCell="B153" sqref="A153:B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -14829,7 +14829,7 @@
         <v>58</v>
       </c>
       <c r="M214" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N214" s="15"/>
       <c r="O214" s="15"/>
@@ -14846,7 +14846,7 @@
       <c r="Z214" s="3"/>
       <c r="AA214" s="3"/>
     </row>
-    <row r="215" spans="1:27">
+    <row r="215" spans="1:27" ht="18.75" customHeight="1">
       <c r="A215" s="15" t="s">
         <v>1146</v>
       </c>
@@ -17066,7 +17066,9 @@
       <c r="J259" s="15">
         <v>10</v>
       </c>
-      <c r="K259" s="15"/>
+      <c r="K259" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="L259" s="15" t="s">
         <v>101</v>
       </c>

--- a/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
@@ -4899,10 +4899,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B317" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B153" sqref="A153:B153"/>
+      <selection pane="bottomRight" activeCell="A185" sqref="A185:XFD185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -13913,7 +13913,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="1:27">
+    <row r="195" spans="1:27" ht="13.5" customHeight="1">
       <c r="A195" s="15" t="s">
         <v>737</v>
       </c>
@@ -16292,7 +16292,7 @@
         <v>77</v>
       </c>
       <c r="L244" s="15" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M244" s="15" t="s">
         <v>18</v>

--- a/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5136" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5137" uniqueCount="1482">
   <si>
     <t>Name</t>
   </si>
@@ -4610,7 +4610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4675,6 +4675,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4899,10 +4902,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A185" sqref="A185:XFD185"/>
+      <selection pane="bottomRight" activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -21136,8 +21139,8 @@
       <c r="K346" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L346" s="15">
-        <v>1</v>
+      <c r="L346" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="M346" s="15" t="s">
         <v>26</v>

--- a/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5137" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5138" uniqueCount="1483">
   <si>
     <t>Name</t>
   </si>
@@ -4466,6 +4466,9 @@
   </si>
   <si>
     <t>1 to 24</t>
+  </si>
+  <si>
+    <t>Lion, Spotted: 15 HD</t>
   </si>
 </sst>
 </file>
@@ -4901,11 +4904,11 @@
   </sheetPr>
   <dimension ref="A1:AA1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B212" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B382" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A220" sqref="A220"/>
+      <selection pane="bottomRight" activeCell="L383" sqref="L383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -22243,7 +22246,7 @@
     </row>
     <row r="370" spans="1:27">
       <c r="A370" s="15" t="s">
-        <v>1250</v>
+        <v>1482</v>
       </c>
       <c r="B370" s="15" t="s">
         <v>1308</v>
@@ -22986,8 +22989,8 @@
       <c r="K383" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="L383" s="15">
-        <v>1</v>
+      <c r="L383" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="M383" s="15" t="s">
         <v>18</v>

--- a/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
@@ -4533,7 +4533,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4556,6 +4556,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -4613,7 +4625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4681,6 +4693,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4905,10 +4938,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B382" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B447" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L383" sqref="L383"/>
+      <selection pane="bottomRight" activeCell="G455" sqref="G455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5291,7 +5324,7 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="23" t="s">
         <v>796</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -5399,7 +5432,7 @@
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="23" t="s">
         <v>965</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -5452,7 +5485,7 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="23" t="s">
         <v>967</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -5589,7 +5622,7 @@
       <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -5721,7 +5754,7 @@
       <c r="P17" s="15"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="23" t="s">
         <v>440</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -5763,7 +5796,7 @@
       <c r="P18" s="15"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="23" t="s">
         <v>471</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -5816,7 +5849,7 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="23" t="s">
         <v>572</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -5862,7 +5895,7 @@
       <c r="P20" s="15"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="23" t="s">
         <v>972</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -5908,7 +5941,7 @@
       <c r="P21" s="15"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="23" t="s">
         <v>957</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -6433,7 +6466,7 @@
       <c r="P32" s="15"/>
     </row>
     <row r="33" spans="1:27">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="23" t="s">
         <v>152</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -6995,7 +7028,7 @@
       <c r="P44" s="15"/>
     </row>
     <row r="45" spans="1:27">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="24" t="s">
         <v>1480</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -7079,7 +7112,7 @@
       <c r="P46" s="15"/>
     </row>
     <row r="47" spans="1:27">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="23" t="s">
         <v>257</v>
       </c>
       <c r="B47" s="15" t="s">
@@ -7420,7 +7453,7 @@
       <c r="AA53" s="3"/>
     </row>
     <row r="54" spans="1:27">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="24" t="s">
         <v>862</v>
       </c>
       <c r="B54" s="15" t="s">
@@ -7475,7 +7508,7 @@
       <c r="AA54" s="3"/>
     </row>
     <row r="55" spans="1:27">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="23" t="s">
         <v>719</v>
       </c>
       <c r="B55" s="15" t="s">
@@ -7530,7 +7563,7 @@
       <c r="AA55" s="3"/>
     </row>
     <row r="56" spans="1:27">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="23" t="s">
         <v>997</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -7583,7 +7616,7 @@
       <c r="AA56" s="3"/>
     </row>
     <row r="57" spans="1:27">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="23" t="s">
         <v>999</v>
       </c>
       <c r="B57" s="15" t="s">
@@ -7638,7 +7671,7 @@
       <c r="AA57" s="8"/>
     </row>
     <row r="58" spans="1:27">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="23" t="s">
         <v>1001</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -7680,7 +7713,7 @@
       <c r="P58" s="15"/>
     </row>
     <row r="59" spans="1:27">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="23" t="s">
         <v>672</v>
       </c>
       <c r="B59" s="15" t="s">
@@ -13429,7 +13462,7 @@
       <c r="P183" s="15"/>
     </row>
     <row r="184" spans="1:27">
-      <c r="A184" s="15" t="s">
+      <c r="A184" s="23" t="s">
         <v>1128</v>
       </c>
       <c r="B184" s="15" t="s">
@@ -13473,7 +13506,7 @@
       <c r="P184" s="15"/>
     </row>
     <row r="185" spans="1:27">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="23" t="s">
         <v>1126</v>
       </c>
       <c r="B185" s="15" t="s">
@@ -13559,7 +13592,7 @@
       <c r="P186" s="15"/>
     </row>
     <row r="187" spans="1:27">
-      <c r="A187" s="15" t="s">
+      <c r="A187" s="23" t="s">
         <v>1158</v>
       </c>
       <c r="B187" s="15" t="s">
@@ -16937,58 +16970,58 @@
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
     </row>
-    <row r="257" spans="1:27">
-      <c r="A257" s="15" t="s">
+    <row r="257" spans="1:27" s="29" customFormat="1">
+      <c r="A257" s="24" t="s">
         <v>1205</v>
       </c>
-      <c r="B257" s="15" t="s">
+      <c r="B257" s="24" t="s">
         <v>893</v>
       </c>
-      <c r="C257" s="15" t="s">
+      <c r="C257" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D257" s="15" t="s">
+      <c r="D257" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E257" s="15"/>
-      <c r="F257" s="15" t="s">
+      <c r="E257" s="23"/>
+      <c r="F257" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G257" s="19">
+      <c r="G257" s="27">
         <v>7</v>
       </c>
-      <c r="H257" s="15">
+      <c r="H257" s="23">
         <v>13</v>
       </c>
-      <c r="I257" s="15">
+      <c r="I257" s="23">
         <v>10</v>
       </c>
-      <c r="J257" s="15">
+      <c r="J257" s="23">
         <v>10</v>
       </c>
-      <c r="K257" s="15" t="s">
+      <c r="K257" s="23" t="s">
         <v>888</v>
       </c>
-      <c r="L257" s="15" t="s">
+      <c r="L257" s="23" t="s">
         <v>1476</v>
       </c>
-      <c r="M257" s="15" t="s">
+      <c r="M257" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N257" s="15"/>
-      <c r="O257" s="15"/>
-      <c r="P257" s="15"/>
-      <c r="Q257" s="2"/>
-      <c r="R257" s="2"/>
-      <c r="S257" s="2"/>
-      <c r="T257" s="2"/>
-      <c r="U257" s="2"/>
-      <c r="V257" s="2"/>
-      <c r="W257" s="2"/>
-      <c r="X257" s="2"/>
-      <c r="Y257" s="2"/>
-      <c r="Z257" s="2"/>
-      <c r="AA257" s="2"/>
+      <c r="N257" s="23"/>
+      <c r="O257" s="23"/>
+      <c r="P257" s="23"/>
+      <c r="Q257" s="28"/>
+      <c r="R257" s="28"/>
+      <c r="S257" s="28"/>
+      <c r="T257" s="28"/>
+      <c r="U257" s="28"/>
+      <c r="V257" s="28"/>
+      <c r="W257" s="28"/>
+      <c r="X257" s="28"/>
+      <c r="Y257" s="28"/>
+      <c r="Z257" s="28"/>
+      <c r="AA257" s="28"/>
     </row>
     <row r="258" spans="1:27">
       <c r="A258" s="15" t="s">
@@ -17044,10 +17077,10 @@
       <c r="AA258" s="7"/>
     </row>
     <row r="259" spans="1:27">
-      <c r="A259" s="15" t="s">
+      <c r="A259" s="23" t="s">
         <v>868</v>
       </c>
-      <c r="B259" s="15" t="s">
+      <c r="B259" s="18" t="s">
         <v>545</v>
       </c>
       <c r="C259" s="15" t="s">
@@ -18956,10 +18989,10 @@
       <c r="P298" s="15"/>
     </row>
     <row r="299" spans="1:27">
-      <c r="A299" s="15" t="s">
+      <c r="A299" s="24" t="s">
         <v>1254</v>
       </c>
-      <c r="B299" s="15" t="s">
+      <c r="B299" s="18" t="s">
         <v>1255</v>
       </c>
       <c r="C299" s="15" t="s">
@@ -20285,10 +20318,10 @@
       <c r="P327" s="15"/>
     </row>
     <row r="328" spans="1:27">
-      <c r="A328" s="15" t="s">
+      <c r="A328" s="24" t="s">
         <v>1288</v>
       </c>
-      <c r="B328" s="15" t="s">
+      <c r="B328" s="18" t="s">
         <v>1289</v>
       </c>
       <c r="C328" s="15" t="s">
@@ -20382,10 +20415,10 @@
       <c r="AA329" s="2"/>
     </row>
     <row r="330" spans="1:27">
-      <c r="A330" s="15" t="s">
+      <c r="A330" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="B330" s="15" t="s">
+      <c r="B330" s="18" t="s">
         <v>332</v>
       </c>
       <c r="C330" s="15" t="s">
@@ -21208,10 +21241,10 @@
       <c r="AA347" s="2"/>
     </row>
     <row r="348" spans="1:27">
-      <c r="A348" s="15" t="s">
+      <c r="A348" s="24" t="s">
         <v>825</v>
       </c>
-      <c r="B348" s="15" t="s">
+      <c r="B348" s="18" t="s">
         <v>826</v>
       </c>
       <c r="C348" s="15" t="s">
@@ -21950,10 +21983,10 @@
       <c r="AA363" s="3"/>
     </row>
     <row r="364" spans="1:27">
-      <c r="A364" s="15" t="s">
+      <c r="A364" s="24" t="s">
         <v>1316</v>
       </c>
-      <c r="B364" s="15" t="s">
+      <c r="B364" s="18" t="s">
         <v>1317</v>
       </c>
       <c r="C364" s="15" t="s">
@@ -22058,7 +22091,7 @@
       <c r="AA365" s="1"/>
     </row>
     <row r="366" spans="1:27">
-      <c r="A366" s="15" t="s">
+      <c r="A366" s="23" t="s">
         <v>741</v>
       </c>
       <c r="B366" s="15" t="s">
@@ -22106,10 +22139,10 @@
       </c>
     </row>
     <row r="367" spans="1:27">
-      <c r="A367" s="15" t="s">
+      <c r="A367" s="24" t="s">
         <v>1298</v>
       </c>
-      <c r="B367" s="15" t="s">
+      <c r="B367" s="18" t="s">
         <v>1299</v>
       </c>
       <c r="C367" s="15" t="s">
@@ -22203,10 +22236,10 @@
       <c r="P368" s="15"/>
     </row>
     <row r="369" spans="1:27">
-      <c r="A369" s="15" t="s">
+      <c r="A369" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="B369" s="15" t="s">
+      <c r="B369" s="18" t="s">
         <v>449</v>
       </c>
       <c r="C369" s="15" t="s">
@@ -22245,7 +22278,7 @@
       <c r="P369" s="15"/>
     </row>
     <row r="370" spans="1:27">
-      <c r="A370" s="15" t="s">
+      <c r="A370" s="23" t="s">
         <v>1482</v>
       </c>
       <c r="B370" s="15" t="s">
@@ -22518,10 +22551,10 @@
       <c r="AA374" s="3"/>
     </row>
     <row r="375" spans="1:27">
-      <c r="A375" s="15" t="s">
+      <c r="A375" s="24" t="s">
         <v>708</v>
       </c>
-      <c r="B375" s="15" t="s">
+      <c r="B375" s="18" t="s">
         <v>709</v>
       </c>
       <c r="C375" s="15" t="s">
@@ -22549,8 +22582,8 @@
       <c r="K375" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="L375" s="15" t="s">
-        <v>48</v>
+      <c r="L375" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="M375" s="15" t="s">
         <v>18</v>
@@ -23388,10 +23421,10 @@
       <c r="AA390" s="3"/>
     </row>
     <row r="391" spans="1:27">
-      <c r="A391" s="15" t="s">
+      <c r="A391" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="B391" s="15" t="s">
+      <c r="B391" s="18" t="s">
         <v>209</v>
       </c>
       <c r="C391" s="15" t="s">
@@ -24040,10 +24073,10 @@
       <c r="AA402" s="9"/>
     </row>
     <row r="403" spans="1:27">
-      <c r="A403" s="15" t="s">
+      <c r="A403" s="24" t="s">
         <v>1334</v>
       </c>
-      <c r="B403" s="15" t="s">
+      <c r="B403" s="18" t="s">
         <v>1335</v>
       </c>
       <c r="C403" s="15" t="s">
@@ -24969,7 +25002,7 @@
       <c r="AA419" s="3"/>
     </row>
     <row r="420" spans="1:27">
-      <c r="A420" s="15" t="s">
+      <c r="A420" s="18" t="s">
         <v>469</v>
       </c>
       <c r="B420" s="15" t="s">
@@ -25024,10 +25057,10 @@
       <c r="AA420" s="3"/>
     </row>
     <row r="421" spans="1:27">
-      <c r="A421" s="15" t="s">
+      <c r="A421" s="24" t="s">
         <v>1350</v>
       </c>
-      <c r="B421" s="15" t="s">
+      <c r="B421" s="18" t="s">
         <v>1351</v>
       </c>
       <c r="C421" s="15" t="s">
@@ -25077,10 +25110,10 @@
       <c r="AA421" s="3"/>
     </row>
     <row r="422" spans="1:27">
-      <c r="A422" s="15" t="s">
+      <c r="A422" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="B422" s="15" t="s">
+      <c r="B422" s="18" t="s">
         <v>524</v>
       </c>
       <c r="C422" s="15" t="s">
@@ -25242,10 +25275,10 @@
       <c r="AA424" s="3"/>
     </row>
     <row r="425" spans="1:27">
-      <c r="A425" s="15" t="s">
+      <c r="A425" s="24" t="s">
         <v>886</v>
       </c>
-      <c r="B425" s="15" t="s">
+      <c r="B425" s="18" t="s">
         <v>885</v>
       </c>
       <c r="C425" s="15" t="s">
@@ -25301,7 +25334,7 @@
       <c r="AA425" s="3"/>
     </row>
     <row r="426" spans="1:27">
-      <c r="A426" s="15" t="s">
+      <c r="A426" s="18" t="s">
         <v>198</v>
       </c>
       <c r="B426" s="15" t="s">
@@ -25356,7 +25389,7 @@
       <c r="AA426" s="3"/>
     </row>
     <row r="427" spans="1:27">
-      <c r="A427" s="15" t="s">
+      <c r="A427" s="23" t="s">
         <v>1344</v>
       </c>
       <c r="B427" s="15" t="s">
@@ -25462,7 +25495,7 @@
       <c r="AA428" s="3"/>
     </row>
     <row r="429" spans="1:27">
-      <c r="A429" s="15" t="s">
+      <c r="A429" s="23" t="s">
         <v>1342</v>
       </c>
       <c r="B429" s="15" t="s">
@@ -25571,8 +25604,8 @@
       <c r="Z430" s="3"/>
       <c r="AA430" s="3"/>
     </row>
-    <row r="431" spans="1:27">
-      <c r="A431" s="15" t="s">
+    <row r="431" spans="1:27" s="26" customFormat="1">
+      <c r="A431" s="23" t="s">
         <v>1352</v>
       </c>
       <c r="B431" s="15" t="s">
@@ -25614,20 +25647,20 @@
       <c r="N431" s="15"/>
       <c r="O431" s="15"/>
       <c r="P431" s="15"/>
-      <c r="Q431" s="3"/>
-      <c r="R431" s="3"/>
-      <c r="S431" s="3"/>
-      <c r="T431" s="3"/>
-      <c r="U431" s="3"/>
-      <c r="V431" s="3"/>
-      <c r="W431" s="3"/>
-      <c r="X431" s="3"/>
-      <c r="Y431" s="3"/>
-      <c r="Z431" s="3"/>
-      <c r="AA431" s="3"/>
+      <c r="Q431" s="25"/>
+      <c r="R431" s="25"/>
+      <c r="S431" s="25"/>
+      <c r="T431" s="25"/>
+      <c r="U431" s="25"/>
+      <c r="V431" s="25"/>
+      <c r="W431" s="25"/>
+      <c r="X431" s="25"/>
+      <c r="Y431" s="25"/>
+      <c r="Z431" s="25"/>
+      <c r="AA431" s="25"/>
     </row>
     <row r="432" spans="1:27">
-      <c r="A432" s="15" t="s">
+      <c r="A432" s="23" t="s">
         <v>63</v>
       </c>
       <c r="B432" s="15" t="s">
@@ -25680,7 +25713,7 @@
       <c r="AA432" s="3"/>
     </row>
     <row r="433" spans="1:27">
-      <c r="A433" s="15" t="s">
+      <c r="A433" s="23" t="s">
         <v>1338</v>
       </c>
       <c r="B433" s="15" t="s">
@@ -25786,7 +25819,7 @@
       <c r="AA434" s="3"/>
     </row>
     <row r="435" spans="1:27">
-      <c r="A435" s="15" t="s">
+      <c r="A435" s="23" t="s">
         <v>905</v>
       </c>
       <c r="B435" s="15" t="s">
@@ -25947,7 +25980,7 @@
       <c r="AA437" s="3"/>
     </row>
     <row r="438" spans="1:27">
-      <c r="A438" s="15" t="s">
+      <c r="A438" s="23" t="s">
         <v>684</v>
       </c>
       <c r="B438" s="15" t="s">

--- a/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
@@ -4466,10 +4466,10 @@
     <t>Lion, Spotted: 15 HD</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>Ghoul [DS]: 02 HD</t>
+  </si>
+  <si>
+    <t>ds_styr001</t>
   </si>
 </sst>
 </file>
@@ -4632,7 +4632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4714,15 +4714,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4739,6 +4730,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4963,10 +4957,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B218" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomRight" activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5457,7 +5451,7 @@
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="30" t="s">
         <v>963</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -5510,7 +5504,7 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>965</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -5565,7 +5559,7 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="30" t="s">
         <v>967</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -6074,7 +6068,7 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="30" t="s">
         <v>973</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -6582,7 +6576,7 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="23" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>325</v>
@@ -6760,7 +6754,7 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="30" t="s">
         <v>990</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -7053,7 +7047,7 @@
       <c r="P44" s="15"/>
     </row>
     <row r="45" spans="1:27">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="28" t="s">
         <v>1478</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -7095,7 +7089,7 @@
       <c r="P45" s="15"/>
     </row>
     <row r="46" spans="1:27">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="32" t="s">
         <v>979</v>
       </c>
       <c r="B46" s="18" t="s">
@@ -7309,7 +7303,7 @@
       <c r="P50" s="15"/>
     </row>
     <row r="51" spans="1:27">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="30" t="s">
         <v>987</v>
       </c>
       <c r="B51" s="18" t="s">
@@ -7478,7 +7472,7 @@
       <c r="AA53" s="3"/>
     </row>
     <row r="54" spans="1:27">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="28" t="s">
         <v>860</v>
       </c>
       <c r="B54" s="15" t="s">
@@ -7588,7 +7582,7 @@
       <c r="AA55" s="3"/>
     </row>
     <row r="56" spans="1:27">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="30" t="s">
         <v>995</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -7641,7 +7635,7 @@
       <c r="AA56" s="3"/>
     </row>
     <row r="57" spans="1:27">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="30" t="s">
         <v>997</v>
       </c>
       <c r="B57" s="15" t="s">
@@ -7696,7 +7690,7 @@
       <c r="AA57" s="8"/>
     </row>
     <row r="58" spans="1:27">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="31" t="s">
         <v>999</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -7790,7 +7784,7 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60" spans="1:27">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="31" t="s">
         <v>994</v>
       </c>
       <c r="B60" s="15" t="s">
@@ -9335,7 +9329,7 @@
       <c r="AA93" s="7"/>
     </row>
     <row r="94" spans="1:27">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B94" s="15" t="s">
@@ -9432,7 +9426,7 @@
       <c r="P95" s="15"/>
     </row>
     <row r="96" spans="1:27">
-      <c r="A96" s="33" t="s">
+      <c r="A96" s="30" t="s">
         <v>1015</v>
       </c>
       <c r="B96" s="15" t="s">
@@ -9510,7 +9504,7 @@
       <c r="P97" s="15"/>
     </row>
     <row r="98" spans="1:27">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="30" t="s">
         <v>1032</v>
       </c>
       <c r="B98" s="15" t="s">
@@ -9609,7 +9603,7 @@
       <c r="AA99" s="2"/>
     </row>
     <row r="100" spans="1:27">
-      <c r="A100" s="33" t="s">
+      <c r="A100" s="30" t="s">
         <v>392</v>
       </c>
       <c r="B100" s="15" t="s">
@@ -9706,7 +9700,7 @@
       <c r="P101" s="15"/>
     </row>
     <row r="102" spans="1:27">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="30" t="s">
         <v>674</v>
       </c>
       <c r="B102" s="15" t="s">
@@ -16996,7 +16990,7 @@
       <c r="AA256" s="1"/>
     </row>
     <row r="257" spans="1:27" s="26" customFormat="1">
-      <c r="A257" s="31" t="s">
+      <c r="A257" s="32" t="s">
         <v>1203</v>
       </c>
       <c r="B257" s="18" t="s">
@@ -17036,17 +17030,17 @@
       <c r="N257" s="15"/>
       <c r="O257" s="15"/>
       <c r="P257" s="15"/>
-      <c r="Q257" s="32"/>
-      <c r="R257" s="32"/>
-      <c r="S257" s="32"/>
-      <c r="T257" s="32"/>
-      <c r="U257" s="32"/>
-      <c r="V257" s="32"/>
-      <c r="W257" s="32"/>
-      <c r="X257" s="32"/>
-      <c r="Y257" s="32"/>
-      <c r="Z257" s="32"/>
-      <c r="AA257" s="32"/>
+      <c r="Q257" s="29"/>
+      <c r="R257" s="29"/>
+      <c r="S257" s="29"/>
+      <c r="T257" s="29"/>
+      <c r="U257" s="29"/>
+      <c r="V257" s="29"/>
+      <c r="W257" s="29"/>
+      <c r="X257" s="29"/>
+      <c r="Y257" s="29"/>
+      <c r="Z257" s="29"/>
+      <c r="AA257" s="29"/>
     </row>
     <row r="258" spans="1:27">
       <c r="A258" s="15" t="s">
@@ -19014,7 +19008,7 @@
       <c r="P298" s="15"/>
     </row>
     <row r="299" spans="1:27">
-      <c r="A299" s="31" t="s">
+      <c r="A299" s="32" t="s">
         <v>1252</v>
       </c>
       <c r="B299" s="18" t="s">
@@ -19184,7 +19178,7 @@
       <c r="P302" s="15"/>
     </row>
     <row r="303" spans="1:27">
-      <c r="A303" s="15" t="s">
+      <c r="A303" s="23" t="s">
         <v>882</v>
       </c>
       <c r="B303" s="15" t="s">
@@ -20343,7 +20337,7 @@
       <c r="P327" s="15"/>
     </row>
     <row r="328" spans="1:27">
-      <c r="A328" s="31" t="s">
+      <c r="A328" s="32" t="s">
         <v>1286</v>
       </c>
       <c r="B328" s="18" t="s">
@@ -21953,7 +21947,7 @@
       <c r="AA362" s="1"/>
     </row>
     <row r="363" spans="1:27">
-      <c r="A363" s="15" t="s">
+      <c r="A363" s="23" t="s">
         <v>557</v>
       </c>
       <c r="B363" s="15" t="s">
@@ -22946,17 +22940,17 @@
       <c r="N381" s="15"/>
       <c r="O381" s="15"/>
       <c r="P381" s="15"/>
-      <c r="Q381" s="30"/>
-      <c r="R381" s="30"/>
-      <c r="S381" s="30"/>
-      <c r="T381" s="30"/>
-      <c r="U381" s="30"/>
-      <c r="V381" s="30"/>
-      <c r="W381" s="30"/>
-      <c r="X381" s="30"/>
-      <c r="Y381" s="30"/>
-      <c r="Z381" s="30"/>
-      <c r="AA381" s="30"/>
+      <c r="Q381" s="27"/>
+      <c r="R381" s="27"/>
+      <c r="S381" s="27"/>
+      <c r="T381" s="27"/>
+      <c r="U381" s="27"/>
+      <c r="V381" s="27"/>
+      <c r="W381" s="27"/>
+      <c r="X381" s="27"/>
+      <c r="Y381" s="27"/>
+      <c r="Z381" s="27"/>
+      <c r="AA381" s="27"/>
     </row>
     <row r="382" spans="1:27">
       <c r="A382" s="15" t="s">
@@ -23446,7 +23440,7 @@
       <c r="AA390" s="3"/>
     </row>
     <row r="391" spans="1:27">
-      <c r="A391" s="31" t="s">
+      <c r="A391" s="28" t="s">
         <v>208</v>
       </c>
       <c r="B391" s="18" t="s">
@@ -23986,7 +23980,7 @@
       <c r="AA400" s="1"/>
     </row>
     <row r="401" spans="1:27">
-      <c r="A401" s="15" t="s">
+      <c r="A401" s="23" t="s">
         <v>624</v>
       </c>
       <c r="B401" s="15" t="s">
@@ -24041,7 +24035,7 @@
       <c r="AA401" s="3"/>
     </row>
     <row r="402" spans="1:27">
-      <c r="A402" s="15" t="s">
+      <c r="A402" s="23" t="s">
         <v>640</v>
       </c>
       <c r="B402" s="15" t="s">
@@ -24153,7 +24147,7 @@
       <c r="AA403" s="3"/>
     </row>
     <row r="404" spans="1:27">
-      <c r="A404" s="15" t="s">
+      <c r="A404" s="23" t="s">
         <v>786</v>
       </c>
       <c r="B404" s="15" t="s">
@@ -24972,7 +24966,7 @@
       <c r="AA418" s="3"/>
     </row>
     <row r="419" spans="1:27">
-      <c r="A419" s="15" t="s">
+      <c r="A419" s="23" t="s">
         <v>1334</v>
       </c>
       <c r="B419" s="15" t="s">
@@ -25027,7 +25021,7 @@
       <c r="AA419" s="3"/>
     </row>
     <row r="420" spans="1:27">
-      <c r="A420" s="18" t="s">
+      <c r="A420" s="24" t="s">
         <v>468</v>
       </c>
       <c r="B420" s="15" t="s">
@@ -25575,7 +25569,7 @@
       <c r="AA429" s="3"/>
     </row>
     <row r="430" spans="1:27">
-      <c r="A430" s="15" t="s">
+      <c r="A430" s="23" t="s">
         <v>825</v>
       </c>
       <c r="B430" s="15" t="s">
@@ -26146,7 +26140,7 @@
       <c r="P440" s="15"/>
     </row>
     <row r="441" spans="1:27">
-      <c r="A441" s="18" t="s">
+      <c r="A441" s="24" t="s">
         <v>418</v>
       </c>
       <c r="B441" s="18" t="s">
@@ -26399,7 +26393,7 @@
         <v>745</v>
       </c>
       <c r="B446" s="18" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C446" s="15" t="s">
         <v>746</v>
@@ -26450,7 +26444,7 @@
       <c r="AA446" s="3"/>
     </row>
     <row r="447" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A447" s="15" t="s">
+      <c r="A447" s="23" t="s">
         <v>1354</v>
       </c>
       <c r="B447" s="15" t="s">
@@ -26769,60 +26763,60 @@
       <c r="Z452" s="12"/>
       <c r="AA452" s="12"/>
     </row>
-    <row r="453" spans="1:27" s="28" customFormat="1" ht="13.5" thickBot="1">
+    <row r="453" spans="1:27" s="26" customFormat="1" ht="13.5" thickBot="1">
       <c r="A453" s="23" t="s">
         <v>1363</v>
       </c>
-      <c r="B453" s="23" t="s">
+      <c r="B453" s="15" t="s">
         <v>1364</v>
       </c>
-      <c r="C453" s="23" t="s">
+      <c r="C453" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D453" s="23" t="s">
+      <c r="D453" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="E453" s="23" t="s">
+      <c r="E453" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="F453" s="23" t="s">
+      <c r="F453" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G453" s="27">
+      <c r="G453" s="19">
         <v>13</v>
       </c>
-      <c r="H453" s="23">
+      <c r="H453" s="15">
         <v>14</v>
       </c>
-      <c r="I453" s="23">
+      <c r="I453" s="15">
         <v>10</v>
       </c>
-      <c r="J453" s="23">
+      <c r="J453" s="15">
         <v>10</v>
       </c>
-      <c r="K453" s="23" t="s">
+      <c r="K453" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L453" s="23">
-        <v>1</v>
-      </c>
-      <c r="M453" s="23" t="s">
+      <c r="L453" s="15">
+        <v>1</v>
+      </c>
+      <c r="M453" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N453" s="23"/>
-      <c r="O453" s="23"/>
-      <c r="P453" s="23"/>
-      <c r="Q453" s="29"/>
-      <c r="R453" s="29"/>
-      <c r="S453" s="29"/>
-      <c r="T453" s="29"/>
-      <c r="U453" s="29"/>
-      <c r="V453" s="29"/>
-      <c r="W453" s="29"/>
-      <c r="X453" s="29"/>
-      <c r="Y453" s="29"/>
-      <c r="Z453" s="29"/>
-      <c r="AA453" s="29"/>
+      <c r="N453" s="15"/>
+      <c r="O453" s="15"/>
+      <c r="P453" s="15"/>
+      <c r="Q453" s="33"/>
+      <c r="R453" s="33"/>
+      <c r="S453" s="33"/>
+      <c r="T453" s="33"/>
+      <c r="U453" s="33"/>
+      <c r="V453" s="33"/>
+      <c r="W453" s="33"/>
+      <c r="X453" s="33"/>
+      <c r="Y453" s="33"/>
+      <c r="Z453" s="33"/>
+      <c r="AA453" s="33"/>
     </row>
     <row r="454" spans="1:27" ht="13.5" thickBot="1">
       <c r="A454" s="23" t="s">
@@ -26877,63 +26871,63 @@
       <c r="Z454" s="12"/>
       <c r="AA454" s="12"/>
     </row>
-    <row r="455" spans="1:27" s="28" customFormat="1" ht="13.5" thickBot="1">
+    <row r="455" spans="1:27" s="26" customFormat="1" ht="13.5" thickBot="1">
       <c r="A455" s="23" t="s">
         <v>1365</v>
       </c>
-      <c r="B455" s="23" t="s">
+      <c r="B455" s="15" t="s">
         <v>1366</v>
       </c>
-      <c r="C455" s="23" t="s">
+      <c r="C455" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D455" s="23" t="s">
+      <c r="D455" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="E455" s="23" t="s">
+      <c r="E455" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="F455" s="23" t="s">
+      <c r="F455" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G455" s="27">
+      <c r="G455" s="19">
         <v>13</v>
       </c>
-      <c r="H455" s="23">
+      <c r="H455" s="15">
         <v>13</v>
       </c>
-      <c r="I455" s="23">
+      <c r="I455" s="15">
         <v>14</v>
       </c>
-      <c r="J455" s="23">
+      <c r="J455" s="15">
         <v>14</v>
       </c>
-      <c r="K455" s="23" t="s">
+      <c r="K455" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="L455" s="23" t="s">
+      <c r="L455" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="M455" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N455" s="23"/>
-      <c r="O455" s="23"/>
-      <c r="P455" s="23"/>
-      <c r="Q455" s="29"/>
-      <c r="R455" s="29"/>
-      <c r="S455" s="29"/>
-      <c r="T455" s="29"/>
-      <c r="U455" s="29"/>
-      <c r="V455" s="29"/>
-      <c r="W455" s="29"/>
-      <c r="X455" s="29"/>
-      <c r="Y455" s="29"/>
-      <c r="Z455" s="29"/>
-      <c r="AA455" s="29"/>
+      <c r="M455" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N455" s="15"/>
+      <c r="O455" s="15"/>
+      <c r="P455" s="15"/>
+      <c r="Q455" s="33"/>
+      <c r="R455" s="33"/>
+      <c r="S455" s="33"/>
+      <c r="T455" s="33"/>
+      <c r="U455" s="33"/>
+      <c r="V455" s="33"/>
+      <c r="W455" s="33"/>
+      <c r="X455" s="33"/>
+      <c r="Y455" s="33"/>
+      <c r="Z455" s="33"/>
+      <c r="AA455" s="33"/>
     </row>
     <row r="456" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A456" s="15" t="s">
+      <c r="A456" s="23" t="s">
         <v>1367</v>
       </c>
       <c r="B456" s="15" t="s">
@@ -26986,7 +26980,7 @@
       <c r="AA456" s="12"/>
     </row>
     <row r="457" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A457" s="15" t="s">
+      <c r="A457" s="23" t="s">
         <v>1382</v>
       </c>
       <c r="B457" s="15" t="s">
@@ -27039,7 +27033,7 @@
       <c r="AA457" s="12"/>
     </row>
     <row r="458" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A458" s="15" t="s">
+      <c r="A458" s="23" t="s">
         <v>875</v>
       </c>
       <c r="B458" s="15" t="s">
@@ -27094,7 +27088,7 @@
       <c r="AA458" s="12"/>
     </row>
     <row r="459" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A459" s="15" t="s">
+      <c r="A459" s="23" t="s">
         <v>742</v>
       </c>
       <c r="B459" s="15" t="s">
@@ -27153,7 +27147,7 @@
       <c r="AA459" s="12"/>
     </row>
     <row r="460" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A460" s="15" t="s">
+      <c r="A460" s="23" t="s">
         <v>1369</v>
       </c>
       <c r="B460" s="15" t="s">
@@ -27316,7 +27310,7 @@
       <c r="AA462" s="12"/>
     </row>
     <row r="463" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A463" s="15" t="s">
+      <c r="A463" s="23" t="s">
         <v>1376</v>
       </c>
       <c r="B463" s="15" t="s">
@@ -27371,7 +27365,7 @@
       <c r="AA463" s="12"/>
     </row>
     <row r="464" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A464" s="15" t="s">
+      <c r="A464" s="23" t="s">
         <v>1380</v>
       </c>
       <c r="B464" s="15" t="s">
@@ -27479,7 +27473,7 @@
       <c r="AA465" s="12"/>
     </row>
     <row r="466" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A466" s="15" t="s">
+      <c r="A466" s="23" t="s">
         <v>607</v>
       </c>
       <c r="B466" s="15" t="s">
@@ -27644,7 +27638,7 @@
       <c r="AA468" s="12"/>
     </row>
     <row r="469" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A469" s="15" t="s">
+      <c r="A469" s="23" t="s">
         <v>1372</v>
       </c>
       <c r="B469" s="15" t="s">
@@ -27697,7 +27691,7 @@
       <c r="AA469" s="12"/>
     </row>
     <row r="470" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A470" s="15" t="s">
+      <c r="A470" s="23" t="s">
         <v>1374</v>
       </c>
       <c r="B470" s="15" t="s">
@@ -27966,7 +27960,7 @@
       <c r="AA474" s="12"/>
     </row>
     <row r="475" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A475" s="15" t="s">
+      <c r="A475" s="23" t="s">
         <v>1384</v>
       </c>
       <c r="B475" s="15" t="s">

--- a/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
@@ -4534,7 +4534,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4574,6 +4574,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4632,7 +4638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4733,6 +4739,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4957,10 +4966,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B218" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B491" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E221" sqref="E221"/>
+      <selection pane="bottomRight" activeCell="F495" sqref="F495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -19008,7 +19017,7 @@
       <c r="P298" s="15"/>
     </row>
     <row r="299" spans="1:27">
-      <c r="A299" s="32" t="s">
+      <c r="A299" s="34" t="s">
         <v>1252</v>
       </c>
       <c r="B299" s="18" t="s">
@@ -20337,7 +20346,7 @@
       <c r="P327" s="15"/>
     </row>
     <row r="328" spans="1:27">
-      <c r="A328" s="32" t="s">
+      <c r="A328" s="34" t="s">
         <v>1286</v>
       </c>
       <c r="B328" s="18" t="s">
@@ -20434,7 +20443,7 @@
       <c r="AA329" s="2"/>
     </row>
     <row r="330" spans="1:27">
-      <c r="A330" s="24" t="s">
+      <c r="A330" s="28" t="s">
         <v>330</v>
       </c>
       <c r="B330" s="18" t="s">
@@ -24092,7 +24101,7 @@
       <c r="AA402" s="9"/>
     </row>
     <row r="403" spans="1:27">
-      <c r="A403" s="24" t="s">
+      <c r="A403" s="32" t="s">
         <v>1332</v>
       </c>
       <c r="B403" s="18" t="s">
@@ -25076,7 +25085,7 @@
       <c r="AA420" s="3"/>
     </row>
     <row r="421" spans="1:27">
-      <c r="A421" s="24" t="s">
+      <c r="A421" s="28" t="s">
         <v>1348</v>
       </c>
       <c r="B421" s="18" t="s">
@@ -25294,7 +25303,7 @@
       <c r="AA424" s="25"/>
     </row>
     <row r="425" spans="1:27">
-      <c r="A425" s="24" t="s">
+      <c r="A425" s="28" t="s">
         <v>884</v>
       </c>
       <c r="B425" s="18" t="s">
@@ -25569,7 +25578,7 @@
       <c r="AA429" s="3"/>
     </row>
     <row r="430" spans="1:27">
-      <c r="A430" s="23" t="s">
+      <c r="A430" s="30" t="s">
         <v>825</v>
       </c>
       <c r="B430" s="15" t="s">
@@ -26098,7 +26107,7 @@
       <c r="P439" s="15"/>
     </row>
     <row r="440" spans="1:27">
-      <c r="A440" s="18" t="s">
+      <c r="A440" s="24" t="s">
         <v>1356</v>
       </c>
       <c r="B440" s="15" t="s">
@@ -26228,7 +26237,7 @@
       <c r="P442" s="15"/>
     </row>
     <row r="443" spans="1:27">
-      <c r="A443" s="15" t="s">
+      <c r="A443" s="23" t="s">
         <v>449</v>
       </c>
       <c r="B443" s="15" t="s">
@@ -26654,7 +26663,7 @@
       <c r="AA450" s="12"/>
     </row>
     <row r="451" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A451" s="15" t="s">
+      <c r="A451" s="23" t="s">
         <v>350</v>
       </c>
       <c r="B451" s="15" t="s">
@@ -27088,7 +27097,7 @@
       <c r="AA458" s="12"/>
     </row>
     <row r="459" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A459" s="23" t="s">
+      <c r="A459" s="30" t="s">
         <v>742</v>
       </c>
       <c r="B459" s="15" t="s">
@@ -27255,7 +27264,7 @@
       <c r="AA461" s="12"/>
     </row>
     <row r="462" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A462" s="15" t="s">
+      <c r="A462" s="23" t="s">
         <v>134</v>
       </c>
       <c r="B462" s="15" t="s">
@@ -27583,7 +27592,7 @@
       <c r="AA467" s="12"/>
     </row>
     <row r="468" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A468" s="15" t="s">
+      <c r="A468" s="23" t="s">
         <v>192</v>
       </c>
       <c r="B468" s="15" t="s">
@@ -28070,7 +28079,7 @@
       <c r="AA476" s="12"/>
     </row>
     <row r="477" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A477" s="15" t="s">
+      <c r="A477" s="23" t="s">
         <v>1390</v>
       </c>
       <c r="B477" s="15" t="s">
@@ -28123,7 +28132,7 @@
       <c r="AA477" s="12"/>
     </row>
     <row r="478" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A478" s="15" t="s">
+      <c r="A478" s="23" t="s">
         <v>1392</v>
       </c>
       <c r="B478" s="15" t="s">
@@ -28178,7 +28187,7 @@
       <c r="AA478" s="12"/>
     </row>
     <row r="479" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A479" s="15" t="s">
+      <c r="A479" s="23" t="s">
         <v>388</v>
       </c>
       <c r="B479" s="15" t="s">
@@ -28235,7 +28244,7 @@
       <c r="AA479" s="12"/>
     </row>
     <row r="480" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A480" s="15" t="s">
+      <c r="A480" s="23" t="s">
         <v>747</v>
       </c>
       <c r="B480" s="15" t="s">
@@ -28345,7 +28354,7 @@
       <c r="AA481" s="12"/>
     </row>
     <row r="482" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A482" s="15" t="s">
+      <c r="A482" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B482" s="15" t="s">
@@ -28453,7 +28462,7 @@
       <c r="AA483" s="14"/>
     </row>
     <row r="484" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A484" s="15" t="s">
+      <c r="A484" s="23" t="s">
         <v>1386</v>
       </c>
       <c r="B484" s="15" t="s">
@@ -28563,7 +28572,7 @@
       <c r="AA485" s="14"/>
     </row>
     <row r="486" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A486" s="15" t="s">
+      <c r="A486" s="23" t="s">
         <v>232</v>
       </c>
       <c r="B486" s="15" t="s">
@@ -28662,7 +28671,7 @@
       <c r="P487" s="15"/>
     </row>
     <row r="488" spans="1:27">
-      <c r="A488" s="15" t="s">
+      <c r="A488" s="23" t="s">
         <v>1388</v>
       </c>
       <c r="B488" s="15" t="s">
@@ -28748,7 +28757,7 @@
       <c r="P489" s="15"/>
     </row>
     <row r="490" spans="1:27">
-      <c r="A490" s="15" t="s">
+      <c r="A490" s="23" t="s">
         <v>310</v>
       </c>
       <c r="B490" s="15" t="s">
@@ -28924,7 +28933,7 @@
       <c r="P493" s="15"/>
     </row>
     <row r="494" spans="1:27">
-      <c r="A494" s="15" t="s">
+      <c r="A494" s="23" t="s">
         <v>835</v>
       </c>
       <c r="B494" s="15" t="s">
@@ -28966,7 +28975,7 @@
       <c r="P494" s="15"/>
     </row>
     <row r="495" spans="1:27">
-      <c r="A495" s="15" t="s">
+      <c r="A495" s="23" t="s">
         <v>524</v>
       </c>
       <c r="B495" s="15" t="s">
@@ -29010,7 +29019,7 @@
       <c r="P495" s="15"/>
     </row>
     <row r="496" spans="1:27">
-      <c r="A496" s="15" t="s">
+      <c r="A496" s="23" t="s">
         <v>555</v>
       </c>
       <c r="B496" s="15" t="s">
@@ -29054,7 +29063,7 @@
       <c r="P496" s="15"/>
     </row>
     <row r="497" spans="1:16">
-      <c r="A497" s="15" t="s">
+      <c r="A497" s="23" t="s">
         <v>1398</v>
       </c>
       <c r="B497" s="15" t="s">
@@ -29142,7 +29151,7 @@
       <c r="P498" s="15"/>
     </row>
     <row r="499" spans="1:16">
-      <c r="A499" s="15" t="s">
+      <c r="A499" s="23" t="s">
         <v>1404</v>
       </c>
       <c r="B499" s="15" t="s">
@@ -29270,7 +29279,7 @@
       <c r="P501" s="15"/>
     </row>
     <row r="502" spans="1:16">
-      <c r="A502" s="15" t="s">
+      <c r="A502" s="23" t="s">
         <v>297</v>
       </c>
       <c r="B502" s="15" t="s">
@@ -29398,7 +29407,7 @@
       <c r="P504" s="15"/>
     </row>
     <row r="505" spans="1:16">
-      <c r="A505" s="15" t="s">
+      <c r="A505" s="23" t="s">
         <v>667</v>
       </c>
       <c r="B505" s="15" t="s">
@@ -29442,7 +29451,7 @@
       <c r="P505" s="15"/>
     </row>
     <row r="506" spans="1:16">
-      <c r="A506" s="15" t="s">
+      <c r="A506" s="23" t="s">
         <v>1402</v>
       </c>
       <c r="B506" s="15" t="s">
@@ -29486,7 +29495,7 @@
       <c r="P506" s="15"/>
     </row>
     <row r="507" spans="1:16">
-      <c r="A507" s="15" t="s">
+      <c r="A507" s="23" t="s">
         <v>1406</v>
       </c>
       <c r="B507" s="15" t="s">
@@ -29528,7 +29537,7 @@
       <c r="P507" s="15"/>
     </row>
     <row r="508" spans="1:16">
-      <c r="A508" s="15" t="s">
+      <c r="A508" s="23" t="s">
         <v>1407</v>
       </c>
       <c r="B508" s="15" t="s">

--- a/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
@@ -4966,10 +4966,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B491" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B429" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F495" sqref="F495"/>
+      <selection pane="bottomRight" activeCell="D433" sqref="D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -25030,7 +25030,7 @@
       <c r="AA419" s="3"/>
     </row>
     <row r="420" spans="1:27">
-      <c r="A420" s="24" t="s">
+      <c r="A420" s="28" t="s">
         <v>468</v>
       </c>
       <c r="B420" s="15" t="s">
@@ -26107,7 +26107,7 @@
       <c r="P439" s="15"/>
     </row>
     <row r="440" spans="1:27">
-      <c r="A440" s="24" t="s">
+      <c r="A440" s="28" t="s">
         <v>1356</v>
       </c>
       <c r="B440" s="15" t="s">
@@ -26149,7 +26149,7 @@
       <c r="P440" s="15"/>
     </row>
     <row r="441" spans="1:27">
-      <c r="A441" s="24" t="s">
+      <c r="A441" s="28" t="s">
         <v>418</v>
       </c>
       <c r="B441" s="18" t="s">
@@ -26936,7 +26936,7 @@
       <c r="AA455" s="33"/>
     </row>
     <row r="456" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A456" s="23" t="s">
+      <c r="A456" s="30" t="s">
         <v>1367</v>
       </c>
       <c r="B456" s="15" t="s">
@@ -26989,7 +26989,7 @@
       <c r="AA456" s="12"/>
     </row>
     <row r="457" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A457" s="23" t="s">
+      <c r="A457" s="30" t="s">
         <v>1382</v>
       </c>
       <c r="B457" s="15" t="s">
@@ -27042,7 +27042,7 @@
       <c r="AA457" s="12"/>
     </row>
     <row r="458" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A458" s="23" t="s">
+      <c r="A458" s="30" t="s">
         <v>875</v>
       </c>
       <c r="B458" s="15" t="s">
@@ -28975,7 +28975,7 @@
       <c r="P494" s="15"/>
     </row>
     <row r="495" spans="1:27">
-      <c r="A495" s="23" t="s">
+      <c r="A495" s="30" t="s">
         <v>524</v>
       </c>
       <c r="B495" s="15" t="s">
@@ -29019,7 +29019,7 @@
       <c r="P495" s="15"/>
     </row>
     <row r="496" spans="1:27">
-      <c r="A496" s="23" t="s">
+      <c r="A496" s="30" t="s">
         <v>555</v>
       </c>
       <c r="B496" s="15" t="s">

--- a/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Desert Master List.xlsx
@@ -4966,10 +4966,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B429" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B497" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D433" sqref="D433"/>
+      <selection pane="bottomRight" activeCell="A504" sqref="A504:XFD504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -28462,10 +28462,10 @@
       <c r="AA483" s="14"/>
     </row>
     <row r="484" spans="1:27" ht="13.5" thickBot="1">
-      <c r="A484" s="23" t="s">
+      <c r="A484" s="28" t="s">
         <v>1386</v>
       </c>
-      <c r="B484" s="15" t="s">
+      <c r="B484" s="18" t="s">
         <v>1387</v>
       </c>
       <c r="C484" s="15" t="s">
@@ -29195,7 +29195,7 @@
       <c r="P499" s="15"/>
     </row>
     <row r="500" spans="1:16">
-      <c r="A500" s="15" t="s">
+      <c r="A500" s="18" t="s">
         <v>1396</v>
       </c>
       <c r="B500" s="15" t="s">
@@ -29363,10 +29363,10 @@
       <c r="P503" s="15"/>
     </row>
     <row r="504" spans="1:16">
-      <c r="A504" s="15" t="s">
+      <c r="A504" s="24" t="s">
         <v>650</v>
       </c>
-      <c r="B504" s="15" t="s">
+      <c r="B504" s="18" t="s">
         <v>651</v>
       </c>
       <c r="C504" s="15" t="s">
@@ -29707,10 +29707,10 @@
       <c r="P511" s="15"/>
     </row>
     <row r="512" spans="1:16">
-      <c r="A512" s="15" t="s">
+      <c r="A512" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B512" s="15" t="s">
+      <c r="B512" s="18" t="s">
         <v>229</v>
       </c>
       <c r="C512" s="15" t="s">
@@ -29921,10 +29921,10 @@
       <c r="P516" s="15"/>
     </row>
     <row r="517" spans="1:16">
-      <c r="A517" s="15" t="s">
+      <c r="A517" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="B517" s="15" t="s">
+      <c r="B517" s="18" t="s">
         <v>583</v>
       </c>
       <c r="C517" s="15" t="s">
@@ -29965,10 +29965,10 @@
       <c r="P517" s="15"/>
     </row>
     <row r="518" spans="1:16">
-      <c r="A518" s="15" t="s">
+      <c r="A518" s="24" t="s">
         <v>809</v>
       </c>
-      <c r="B518" s="15" t="s">
+      <c r="B518" s="18" t="s">
         <v>810</v>
       </c>
       <c r="C518" s="15" t="s">
@@ -30309,10 +30309,10 @@
       <c r="P525" s="15"/>
     </row>
     <row r="526" spans="1:16">
-      <c r="A526" s="15" t="s">
+      <c r="A526" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B526" s="15" t="s">
+      <c r="B526" s="18" t="s">
         <v>237</v>
       </c>
       <c r="C526" s="15" t="s">
